--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1189698.852124935</v>
+        <v>-1192338.199442957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>196.4942155152872</v>
+        <v>357.8379140111397</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.75561160645978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.26587558274941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>162.1967738658452</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>118.362314418741</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.80352530458569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>24.95998064263852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>72.80754368543413</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>163.0414221154298</v>
       </c>
       <c r="G8" t="n">
-        <v>229.5166314357087</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>116.625497324887</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>95.72547138594143</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216691</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>164.0001714587671</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>4.444394634329537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301476</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414969017</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>43.87236189622316</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>166.1438437522582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>134.1795292011426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>88.4218355306478</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>13.53601007884757</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0127623547350538</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3791,10 +3791,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1420.181311953367</v>
+        <v>864.8611267254496</v>
       </c>
       <c r="C2" t="n">
-        <v>1051.218795012956</v>
+        <v>864.8611267254496</v>
       </c>
       <c r="D2" t="n">
-        <v>1051.218795012956</v>
+        <v>864.8611267254496</v>
       </c>
       <c r="E2" t="n">
-        <v>665.4305424147115</v>
+        <v>479.0728741272054</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586155</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y2" t="n">
-        <v>1420.181311953367</v>
+        <v>1251.460966789571</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>551.6025748766956</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>846.3061319081675</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.0960630783031</v>
+        <v>934.7929217761713</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>765.8567388482644</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>615.7400994359286</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>467.8270058535355</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>320.9370583556251</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387894</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>631.5814458407721</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.7888666972419</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>1432.831501090109</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1063.868984149697</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395432</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.846590926153</v>
+        <v>1819.43134115423</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081665</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.3353004168657</v>
+        <v>611.8290470195976</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>442.8928640916907</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>292.776224679355</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>292.776224679355</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>292.776224679355</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>124.7897599876336</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>124.7897599876336</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,7 +4744,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
         <v>1533.86271359008</v>
@@ -4756,19 +4756,19 @@
         <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288653</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.765895288653</v>
+        <v>1021.467062747855</v>
       </c>
       <c r="X7" t="n">
-        <v>793.7763443906356</v>
+        <v>793.4775118498374</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.9837652471055</v>
+        <v>793.4775118498374</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1715.892666966217</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.930150025805</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="D8" t="n">
-        <v>988.6644514190546</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="E8" t="n">
-        <v>602.8761988208103</v>
+        <v>646.2728717542877</v>
       </c>
       <c r="F8" t="n">
-        <v>595.9306980716068</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4826,10 +4826,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
         <v>3119.628073993394</v>
@@ -4838,16 +4838,16 @@
         <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2492.63183900615</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2102.492507030338</v>
+        <v>1418.660964416654</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,40 +4893,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>627.5394227759729</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>627.5394227759729</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>477.4227833636371</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>477.4227833636371</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>330.5328358657267</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1830.602152749158</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1608.835537318684</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1319.732670444328</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1319.732670444328</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="W10" t="n">
-        <v>1030.315500407367</v>
+        <v>1037.17743850423</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.315500407367</v>
+        <v>809.1878876062126</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.5229212638368</v>
+        <v>809.1878876062126</v>
       </c>
     </row>
     <row r="11">
@@ -5027,46 +5027,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3260.450525729772</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>3091.514342801865</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>2941.397703389529</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>2793.484609807136</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>2646.594662309226</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>4151.857387650099</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>3897.172899444212</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>3607.755729407251</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>3442.098990560012</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>3442.098990560012</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T16" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U16" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V16" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W16" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>962.6357307816196</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>793.6995478537127</v>
       </c>
       <c r="D19" t="n">
         <v>697.5276345711974</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284095</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.935454102179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1428749586493</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.166487667867</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1070.17693676985</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>849.3843576263199</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5348780504994</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954144</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7254,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
@@ -7327,19 +7327,19 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.8421700460951</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>255.8421700460946</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.591198401903</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>210.3818302264242</v>
+        <v>45.59065786252844</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>4.109826178958997</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.8926045705997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012834</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>61.7094839302701</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>212.9610556929587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.22910392194717</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>53.40527886852219</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>123.3744592024047</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>152.3434691354484</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>137.2878198583894</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7108110197803</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8192178272022</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26320,10 +26320,10 @@
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="F2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302514</v>
@@ -26332,7 +26332,7 @@
         <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302512</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
@@ -26341,7 +26341,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,10 +26350,10 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182256</v>
+        <v>67721.68800182249</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984554</v>
+        <v>53312.72503984565</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309552</v>
+        <v>87914.29116309551</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744158</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744158</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744231</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744308</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26448,13 +26448,13 @@
         <v>16718.11565483776</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.1156548378</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1108675.354250721</v>
+        <v>-1109035.437266438</v>
       </c>
       <c r="C6" t="n">
-        <v>-43725.51119736413</v>
+        <v>-43725.51119736407</v>
       </c>
       <c r="D6" t="n">
-        <v>-203740.973945363</v>
+        <v>-203740.9739453628</v>
       </c>
       <c r="E6" t="n">
-        <v>-253654.2630927554</v>
+        <v>-253689.0010181908</v>
       </c>
       <c r="F6" t="n">
-        <v>71758.1987145999</v>
+        <v>71723.46078916441</v>
       </c>
       <c r="G6" t="n">
-        <v>71758.19871460038</v>
+        <v>71723.46078916418</v>
       </c>
       <c r="H6" t="n">
-        <v>71758.19871459961</v>
+        <v>71723.4607891643</v>
       </c>
       <c r="I6" t="n">
-        <v>71758.19871459987</v>
+        <v>71723.46078916412</v>
       </c>
       <c r="J6" t="n">
-        <v>-95846.9790953825</v>
+        <v>-95881.71702081808</v>
       </c>
       <c r="K6" t="n">
-        <v>71758.1987145999</v>
+        <v>71723.46078916427</v>
       </c>
       <c r="L6" t="n">
-        <v>-2869.521291112193</v>
+        <v>-2869.521291112032</v>
       </c>
       <c r="M6" t="n">
         <v>-20202.8612248014</v>
       </c>
       <c r="N6" t="n">
-        <v>64852.16671071044</v>
+        <v>64852.16671071047</v>
       </c>
       <c r="O6" t="n">
-        <v>64852.16671071056</v>
+        <v>64852.16671071043</v>
       </c>
       <c r="P6" t="n">
-        <v>64852.16671071053</v>
+        <v>64852.16671071047</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.447473868043268</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>327.4823270495938</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.5661045991879</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>236.320727201942</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.4344133514679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>142.2868404559893</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>31.98905151846643</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>243.8346236262817</v>
       </c>
       <c r="G8" t="n">
-        <v>181.4050942177448</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.40031093414117</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>94.04355394550046</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-7.795457125575142e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.795457125575142e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-7.795457125575142e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30511,10 +30511,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,22 +31437,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31461,22 +31461,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716332</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>626.4629682828346</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,28 +34445,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>442.42966628958</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202789</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L6" t="n">
-        <v>553.5225306839448</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980262</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496655</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.26189970604</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394703</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>483.8667238383902</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
